--- a/results/I3_N5_M2_T30_C150_DepLowerLeft_s4_P4_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepLowerLeft_s4_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>864.4047651815218</v>
+        <v>1592.673300225919</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.66476518151241</v>
+        <v>21.54549771016641</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.237602502814244</v>
+        <v>12.10979998706152</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>586.8100000000095</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>245.93</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>25.33845519167733</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20.76239749718578</v>
+        <v>17.89020001293848</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>21.04888644878487</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.14644576523337</v>
+        <v>15.50084538957422</v>
       </c>
     </row>
     <row r="7">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.1305729572104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>7</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>7</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>7</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>7</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>7</v>
@@ -1066,6 +1066,146 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8399999999998</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8">
@@ -1179,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>163.6949999999998</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9">
@@ -1190,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>161.6799999999998</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10">
@@ -1201,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>160.4149999999998</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11">
@@ -1212,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>151.6049999999998</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12">
@@ -1223,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>188.05</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
@@ -1234,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>197.1350000000014</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
@@ -1245,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>203.0850000000015</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -1256,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>207.2750000000015</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
@@ -1267,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>196.6250000000014</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>48.07000000000072</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18">
@@ -1289,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>46.66000000000072</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19">
@@ -1300,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>49.43500000000073</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
@@ -1311,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>46.91500000000073</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21">
@@ -1322,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>42.86500000000072</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>107.5400000000008</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
@@ -1344,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>114.1650000000008</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
@@ -1355,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>108.45</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
@@ -1366,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>113.8</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -1377,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>111.3550000000008</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
@@ -1388,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.8949999999997</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1399,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81999999999971</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1410,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17499999999971</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1421,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.68499999999971</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1432,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1443,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>163.8399999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1454,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>163.6949999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1465,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>161.6799999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1476,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>160.4149999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1487,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>151.6049999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1498,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>188.05</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38">
@@ -1509,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>197.1350000000014</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39">
@@ -1520,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>203.0850000000015</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40">
@@ -1531,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>207.2750000000015</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41">
@@ -1542,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>196.6250000000014</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>13.83999999999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1600,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>13.6949999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1611,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>11.67999999999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1622,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.4149999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1633,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1.604999999999773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1644,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>38.05</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8">
@@ -1655,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>47.13500000000144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
@@ -1666,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>53.08500000000146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10">
@@ -1677,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>57.27500000000146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
@@ -1688,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>46.62500000000145</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1746,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1757,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1768,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1779,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1790,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1801,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1812,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1823,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1834,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1845,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.925000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1856,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1867,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>7.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1878,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1889,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>13.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1911,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1922,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1933,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1944,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1955,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1966,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1977,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1988,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1999,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2013,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2148,6 +2288,61 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
